--- a/SU/rotenone_samples_retained.xlsx
+++ b/SU/rotenone_samples_retained.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\fish_biodiversity\SU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12EBCE7-A7AB-40BE-9AC9-A2E86685397A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566BF8AA-F4B2-4E55-80CD-884D4F42C66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="746" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId12"/>
+    <pivotCache cacheId="4" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5012" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5019" uniqueCount="944">
   <si>
     <t>lot_id</t>
   </si>
@@ -2872,6 +2872,12 @@
   </si>
   <si>
     <t>SU-22-11_081</t>
+  </si>
+  <si>
+    <t>SUML-0882</t>
+  </si>
+  <si>
+    <t>SU-22-13_044</t>
   </si>
 </sst>
 </file>
@@ -2945,9 +2951,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="John Whalen" refreshedDate="45170.003102430557" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="307" xr:uid="{C6A4A50B-9A90-448E-94A0-E8A035395409}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="John Whalen" refreshedDate="45170.404716435187" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="308" xr:uid="{63A1B5BD-7930-491D-BBF6-48FA33E05398}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J308" sheet="samples_retained"/>
+    <worksheetSource ref="A1:J309" sheet="samples_retained"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="lot_id" numFmtId="0">
@@ -3276,7 +3282,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="307">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="308">
   <r>
     <s v="SUML-1026"/>
     <s v="SU-22-15_044"/>
@@ -6961,11 +6967,23 @@
     <n v="2"/>
     <s v="suml"/>
   </r>
+  <r>
+    <s v="SUML-0882"/>
+    <s v="SU-22-13_044"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="11"/>
+    <d v="2022-06-06T00:00:00"/>
+    <s v="Cuyo"/>
+    <s v="EtOH"/>
+    <n v="1"/>
+    <s v="suml"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9422D8FA-6279-4F7C-9A91-732037786C00}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{830474F7-DD8A-4567-ADDD-10AAE983E830}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B286" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -8440,10 +8458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J308"/>
+  <dimension ref="A1:J309"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I309" sqref="I309"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:J309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18307,6 +18325,38 @@
         <v>2</v>
       </c>
       <c r="J308" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309" t="s">
+        <v>942</v>
+      </c>
+      <c r="B309" t="s">
+        <v>943</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
+        <v>892</v>
+      </c>
+      <c r="E309" t="s">
+        <v>220</v>
+      </c>
+      <c r="F309" s="5">
+        <v>44718</v>
+      </c>
+      <c r="G309" t="s">
+        <v>668</v>
+      </c>
+      <c r="H309" t="s">
+        <v>13</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309" t="s">
         <v>937</v>
       </c>
     </row>
@@ -20594,8 +20644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF1F948-C939-47FE-B7D1-B68AD6A4E288}">
   <dimension ref="A1:B286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21289,7 +21339,7 @@
         <v>892</v>
       </c>
       <c r="B86" s="6">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -21529,7 +21579,7 @@
         <v>220</v>
       </c>
       <c r="B116" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -22889,7 +22939,7 @@
         <v>933</v>
       </c>
       <c r="B286" s="6">
-        <v>2075</v>
+        <v>2076</v>
       </c>
     </row>
   </sheetData>
